--- a/IPPU/A1_Outputs/A-O_Demand.xlsx
+++ b/IPPU/A1_Outputs/A-O_Demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_08\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\IPPU_2025_01_14\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67641963-0A46-46CB-A55C-841731C80C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AEB947-9DA8-4E76-B88D-0881BE537DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand_Projection" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:AH2"/>
     </sheetView>
@@ -926,55 +926,55 @@
         <v>5.0559000000000003</v>
       </c>
       <c r="R2" s="6">
-        <v>4.2073</v>
+        <v>4.2404000000000002</v>
       </c>
       <c r="S2" s="6">
-        <v>3.3584999999999998</v>
+        <v>3.4119000000000002</v>
       </c>
       <c r="T2" s="6">
-        <v>4.8960999999999997</v>
+        <v>5.0137</v>
       </c>
       <c r="U2" s="6">
-        <v>4.4800000000000004</v>
+        <v>4.6246</v>
       </c>
       <c r="V2" s="6">
-        <v>4.7091000000000003</v>
+        <v>4.8611000000000004</v>
       </c>
       <c r="W2" s="6">
-        <v>4.9381000000000004</v>
+        <v>5.0975000000000001</v>
       </c>
       <c r="X2" s="6">
-        <v>5.1670999999999996</v>
+        <v>5.3339999999999996</v>
       </c>
       <c r="Y2" s="6">
-        <v>5.3962000000000003</v>
+        <v>5.5704000000000002</v>
       </c>
       <c r="Z2" s="6">
-        <v>5.6252000000000004</v>
+        <v>5.8068</v>
       </c>
       <c r="AA2" s="6">
-        <v>5.8543000000000003</v>
+        <v>6.0433000000000003</v>
       </c>
       <c r="AB2" s="6">
-        <v>6.0834000000000001</v>
+        <v>6.2797999999999998</v>
       </c>
       <c r="AC2" s="6">
-        <v>6.3124000000000002</v>
+        <v>6.5162000000000004</v>
       </c>
       <c r="AD2" s="6">
-        <v>6.5415000000000001</v>
+        <v>6.7526999999999999</v>
       </c>
       <c r="AE2" s="6">
-        <v>6.7706</v>
+        <v>6.9892000000000003</v>
       </c>
       <c r="AF2" s="6">
-        <v>6.9996</v>
+        <v>7.2256</v>
       </c>
       <c r="AG2" s="6">
-        <v>7.2286999999999999</v>
+        <v>7.4621000000000004</v>
       </c>
       <c r="AH2" s="6">
-        <v>7.4577999999999998</v>
+        <v>7.6985000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -2815,6 +2815,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -2984,15 +2993,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DB55C3E-F740-40DC-A110-0B8D499DD44E}">
   <ds:schemaRefs>
@@ -3003,6 +3003,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBC1D0AD-7548-4EBE-9E7D-341DF4908EC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818B3588-4A65-45B4-B0A9-14434EB18F0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3018,12 +3026,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBC1D0AD-7548-4EBE-9E7D-341DF4908EC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>